--- a/2006_dengue_extracted.xlsx
+++ b/2006_dengue_extracted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danalevi/Documents/GitHub/topic04_team04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA3FC45-4977-5747-B12F-39B596852A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C363FBAB-83F8-1643-B207-D47B992703E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{854E1DDC-82B6-4F27-8C2B-743BBC3865CA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16000" xr2:uid="{854E1DDC-82B6-4F27-8C2B-743BBC3865CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
-    <t>Reporting areas</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -309,15 +306,25 @@
   </si>
   <si>
     <t>Bungkan</t>
+  </si>
+  <si>
+    <t>Reporting_areas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -366,13 +373,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,65 +700,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03875884-0701-48F4-A84D-4B964112F726}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -783,7 +791,7 @@
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
         <v>13</v>
@@ -824,7 +832,7 @@
     </row>
     <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2">
         <v>519</v>
@@ -865,48 +873,48 @@
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -945,9 +953,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2">
         <v>22</v>
@@ -988,7 +996,7 @@
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
@@ -1027,9 +1035,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2">
         <v>5</v>
@@ -1068,9 +1076,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2">
         <v>18</v>
@@ -1111,7 +1119,7 @@
     </row>
     <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>8</v>
@@ -1152,7 +1160,7 @@
     </row>
     <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1193,7 +1201,7 @@
     </row>
     <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -1229,12 +1237,12 @@
         <v>6</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2">
         <v>7</v>
@@ -1275,7 +1283,7 @@
     </row>
     <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -1314,9 +1322,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
         <v>16</v>
@@ -1355,9 +1363,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
         <v>14</v>
@@ -1398,7 +1406,7 @@
     </row>
     <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2">
         <v>16</v>
@@ -1439,7 +1447,7 @@
     </row>
     <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2">
         <v>23</v>
@@ -1480,7 +1488,7 @@
     </row>
     <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
@@ -1521,7 +1529,7 @@
     </row>
     <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -1557,12 +1565,12 @@
         <v>6</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -1603,7 +1611,7 @@
     </row>
     <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2">
         <v>17</v>
@@ -1642,9 +1650,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -1653,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1677,15 +1685,15 @@
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -1726,7 +1734,7 @@
     </row>
     <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1762,12 +1770,12 @@
         <v>3</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2">
         <v>6</v>
@@ -1806,9 +1814,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2">
         <v>49</v>
@@ -1847,9 +1855,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1888,9 +1896,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2">
         <v>18</v>
@@ -1929,9 +1937,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2">
         <v>61</v>
@@ -1970,9 +1978,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2">
         <v>127</v>
@@ -2013,13 +2021,13 @@
     </row>
     <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="2">
         <v>2</v>
@@ -2054,7 +2062,7 @@
     </row>
     <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="2">
         <v>8</v>
@@ -2093,9 +2101,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
@@ -2131,12 +2139,12 @@
         <v>3</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2">
         <v>6</v>
@@ -2177,7 +2185,7 @@
     </row>
     <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2">
         <v>39</v>
@@ -2216,9 +2224,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>35</v>
@@ -2257,9 +2265,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2">
         <v>8</v>
@@ -2289,7 +2297,7 @@
         <v>127</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L39" s="2">
         <v>50</v>
@@ -2300,7 +2308,7 @@
     </row>
     <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2">
         <v>39</v>
@@ -2341,7 +2349,7 @@
     </row>
     <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2">
         <v>12</v>
@@ -2380,9 +2388,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2">
         <v>37</v>
@@ -2423,10 +2431,10 @@
     </row>
     <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
@@ -2459,12 +2467,12 @@
         <v>1</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" s="2">
         <v>13</v>
@@ -2505,7 +2513,7 @@
     </row>
     <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2">
         <v>19</v>
@@ -2546,7 +2554,7 @@
     </row>
     <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2">
         <v>37</v>
@@ -2587,7 +2595,7 @@
     </row>
     <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="2">
         <v>10</v>
@@ -2628,7 +2636,7 @@
     </row>
     <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" s="2">
         <v>5</v>
@@ -2669,7 +2677,7 @@
     </row>
     <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2">
         <v>9</v>
@@ -2708,9 +2716,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>17</v>
@@ -2740,18 +2748,18 @@
         <v>12</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2">
         <v>14</v>
@@ -2792,7 +2800,7 @@
     </row>
     <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2">
         <v>15</v>
@@ -2828,12 +2836,12 @@
         <v>7</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" s="2">
         <v>66</v>
@@ -2874,7 +2882,7 @@
     </row>
     <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>19</v>
@@ -2915,7 +2923,7 @@
     </row>
     <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="2">
         <v>3</v>
@@ -2956,7 +2964,7 @@
     </row>
     <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="2">
         <v>12</v>
@@ -2995,9 +3003,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
@@ -3036,9 +3044,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="2">
         <v>80</v>
@@ -3077,9 +3085,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B59" s="2">
         <v>66</v>
@@ -3118,9 +3126,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B60" s="2">
         <v>14</v>
@@ -3161,7 +3169,7 @@
     </row>
     <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="2">
         <v>13</v>
@@ -3202,7 +3210,7 @@
     </row>
     <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2">
         <v>3</v>
@@ -3220,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H62" s="2">
         <v>1</v>
@@ -3243,7 +3251,7 @@
     </row>
     <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="2">
         <v>9</v>
@@ -3284,7 +3292,7 @@
     </row>
     <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64" s="2">
         <v>12</v>
@@ -3325,7 +3333,7 @@
     </row>
     <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2">
         <v>87</v>
@@ -3366,7 +3374,7 @@
     </row>
     <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" s="2">
         <v>4</v>
@@ -3405,9 +3413,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B67" s="2">
         <v>34</v>
@@ -3448,7 +3456,7 @@
     </row>
     <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="2">
         <v>110</v>
@@ -3489,7 +3497,7 @@
     </row>
     <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2">
         <v>14</v>
@@ -3530,7 +3538,7 @@
     </row>
     <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70" s="2">
         <v>18</v>
@@ -3571,7 +3579,7 @@
     </row>
     <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2">
         <v>15</v>
@@ -3607,12 +3615,12 @@
         <v>3</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="2">
         <v>8</v>
@@ -3651,9 +3659,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>2</v>
@@ -3694,7 +3702,7 @@
     </row>
     <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" s="2">
         <v>7</v>
@@ -3735,7 +3743,7 @@
     </row>
     <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B75" s="2">
         <v>10</v>
@@ -3776,7 +3784,7 @@
     </row>
     <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76" s="2">
         <v>3</v>
@@ -3817,7 +3825,7 @@
     </row>
     <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2">
         <v>13</v>
@@ -3858,13 +3866,13 @@
     </row>
     <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" s="2">
         <v>2</v>
@@ -3888,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L78" s="2">
         <v>2</v>

--- a/2006_dengue_extracted.xlsx
+++ b/2006_dengue_extracted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Documents/GitHub/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C363FBAB-83F8-1643-B207-D47B992703E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C363FBAB-83F8-1643-B207-D47B992703E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{852869C4-6D89-4479-AFCE-9748CDD51F5B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="16000" xr2:uid="{854E1DDC-82B6-4F27-8C2B-743BBC3865CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{854E1DDC-82B6-4F27-8C2B-743BBC3865CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -53,18 +53,9 @@
     <t>May</t>
   </si>
   <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
     <t>Aug</t>
   </si>
   <si>
-    <t>Sept</t>
-  </si>
-  <si>
     <t>Oct</t>
   </si>
   <si>
@@ -309,6 +300,15 @@
   </si>
   <si>
     <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -700,16 +700,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03875884-0701-48F4-A84D-4B964112F726}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -726,37 +728,37 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -789,9 +791,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>13</v>
@@ -830,9 +832,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>519</v>
@@ -871,50 +873,50 @@
         <v>790</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -953,9 +955,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2">
         <v>22</v>
@@ -994,9 +996,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
@@ -1035,9 +1037,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2">
         <v>5</v>
@@ -1076,9 +1078,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2">
         <v>18</v>
@@ -1117,9 +1119,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>8</v>
@@ -1158,9 +1160,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1199,9 +1201,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -1237,12 +1239,12 @@
         <v>6</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B14" s="2">
         <v>7</v>
@@ -1281,9 +1283,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -1322,9 +1324,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>16</v>
@@ -1363,9 +1365,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2">
         <v>14</v>
@@ -1404,9 +1406,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" s="2">
         <v>16</v>
@@ -1445,9 +1447,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B19" s="2">
         <v>23</v>
@@ -1486,9 +1488,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
@@ -1527,9 +1529,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -1565,12 +1567,12 @@
         <v>6</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -1609,9 +1611,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2">
         <v>17</v>
@@ -1650,9 +1652,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -1661,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1685,15 +1687,15 @@
         <v>1</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -1732,9 +1734,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1770,12 +1772,12 @@
         <v>3</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2">
         <v>6</v>
@@ -1814,9 +1816,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <v>49</v>
@@ -1855,9 +1857,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -1896,9 +1898,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2">
         <v>18</v>
@@ -1937,9 +1939,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2">
         <v>61</v>
@@ -1978,9 +1980,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2">
         <v>127</v>
@@ -2019,15 +2021,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2">
         <v>2</v>
@@ -2060,9 +2062,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2">
         <v>8</v>
@@ -2101,9 +2103,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
@@ -2139,12 +2141,12 @@
         <v>3</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2">
         <v>6</v>
@@ -2183,9 +2185,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B37" s="2">
         <v>39</v>
@@ -2224,9 +2226,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B38" s="2">
         <v>35</v>
@@ -2265,9 +2267,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B39" s="2">
         <v>8</v>
@@ -2297,7 +2299,7 @@
         <v>127</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L39" s="2">
         <v>50</v>
@@ -2306,9 +2308,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2">
         <v>39</v>
@@ -2347,9 +2349,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2">
         <v>12</v>
@@ -2388,9 +2390,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2">
         <v>37</v>
@@ -2429,12 +2431,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
@@ -2467,12 +2469,12 @@
         <v>1</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B44" s="2">
         <v>13</v>
@@ -2511,9 +2513,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2">
         <v>19</v>
@@ -2552,9 +2554,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2">
         <v>37</v>
@@ -2593,9 +2595,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B47" s="2">
         <v>10</v>
@@ -2634,9 +2636,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B48" s="2">
         <v>5</v>
@@ -2675,9 +2677,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2">
         <v>9</v>
@@ -2716,9 +2718,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B50" s="2">
         <v>17</v>
@@ -2748,18 +2750,18 @@
         <v>12</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B51" s="2">
         <v>14</v>
@@ -2798,9 +2800,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2">
         <v>15</v>
@@ -2836,12 +2838,12 @@
         <v>7</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B53" s="2">
         <v>66</v>
@@ -2880,9 +2882,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54" s="2">
         <v>19</v>
@@ -2921,9 +2923,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2">
         <v>3</v>
@@ -2962,9 +2964,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B56" s="2">
         <v>12</v>
@@ -3003,9 +3005,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
@@ -3044,9 +3046,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B58" s="2">
         <v>80</v>
@@ -3085,9 +3087,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B59" s="2">
         <v>66</v>
@@ -3126,9 +3128,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B60" s="2">
         <v>14</v>
@@ -3167,9 +3169,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B61" s="2">
         <v>13</v>
@@ -3208,9 +3210,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2">
         <v>3</v>
@@ -3228,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H62" s="2">
         <v>1</v>
@@ -3249,9 +3251,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2">
         <v>9</v>
@@ -3290,9 +3292,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B64" s="2">
         <v>12</v>
@@ -3331,9 +3333,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2">
         <v>87</v>
@@ -3372,9 +3374,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B66" s="2">
         <v>4</v>
@@ -3413,9 +3415,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B67" s="2">
         <v>34</v>
@@ -3454,9 +3456,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B68" s="2">
         <v>110</v>
@@ -3495,9 +3497,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B69" s="2">
         <v>14</v>
@@ -3536,9 +3538,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B70" s="2">
         <v>18</v>
@@ -3577,9 +3579,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2">
         <v>15</v>
@@ -3615,12 +3617,12 @@
         <v>3</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B72" s="2">
         <v>8</v>
@@ -3659,9 +3661,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" s="2">
         <v>2</v>
@@ -3700,9 +3702,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B74" s="2">
         <v>7</v>
@@ -3741,9 +3743,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B75" s="2">
         <v>10</v>
@@ -3782,9 +3784,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B76" s="2">
         <v>3</v>
@@ -3823,9 +3825,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B77" s="2">
         <v>13</v>
@@ -3864,15 +3866,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D78" s="2">
         <v>2</v>
@@ -3896,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L78" s="2">
         <v>2</v>

--- a/2006_dengue_extracted.xlsx
+++ b/2006_dengue_extracted.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2db956eb42fcc03/Dokumente/GitHub/topic04_team04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_fiona\Info\topic04_team04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C363FBAB-83F8-1643-B207-D47B992703E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{852869C4-6D89-4479-AFCE-9748CDD51F5B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{854E1DDC-82B6-4F27-8C2B-743BBC3865CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -314,7 +313,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,7 +385,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,19 +696,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03875884-0701-48F4-A84D-4B964112F726}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>87</v>
       </c>
@@ -750,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
@@ -791,7 +790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -832,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -873,7 +872,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -914,7 +913,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
@@ -955,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -996,7 +995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>64</v>
       </c>
@@ -1078,7 +1077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1242,7 +1241,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>77</v>
       </c>
@@ -1488,7 +1487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1652,7 +1651,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1693,7 +1692,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -1775,7 +1774,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1816,7 +1815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1980,7 +1979,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -2021,7 +2020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -2226,7 +2225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -2267,7 +2266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -2390,7 +2389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -2472,8 +2471,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B44" s="2">
@@ -2513,7 +2512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
@@ -2759,7 +2758,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
@@ -2841,7 +2840,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>37</v>
       </c>
@@ -2882,7 +2881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -2923,7 +2922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>46</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>47</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>42</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>33</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>83</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
@@ -3333,7 +3332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>84</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>19</v>
       </c>
@@ -3415,7 +3414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>38</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>76</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>51</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>55</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>25</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>21</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -3866,7 +3865,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>70</v>
       </c>
@@ -3908,7 +3907,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M78">
+  <sortState ref="A2:M78">
     <sortCondition ref="A2:A78"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
